--- a/Map/excel.xlsx
+++ b/Map/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyi07\OneDrive\문서\git\sc-musicOS\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15ADA95-93AA-4EFE-82E7-503EC2BCBC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62EC27A-5CAE-492D-B3B9-421118B63D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1697,7 +1697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1834,6 +1834,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1852,7 +1860,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1862,8 +1870,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1912,11 +1923,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2133,7 +2148,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2365,12 +2380,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
     </row>

--- a/Map/excel.xlsx
+++ b/Map/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyi07\OneDrive\문서\git\sc-musicOS\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62EC27A-5CAE-492D-B3B9-421118B63D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F45FC-1CEF-4B9B-BDCD-098E31CEC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,7 +1277,7 @@
             <charset val="129"/>
           </rPr>
           <t>유튜브 주소입니다.
-======</t>
+로컬 파일의 경로를 넣어서도 사용할 수 있습니다.</t>
         </r>
       </text>
     </comment>
@@ -1697,7 +1697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1842,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1874,7 +1881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1924,6 +1931,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2144,11 +2154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L984"/>
+  <dimension ref="A1:O984"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2166,7 +2176,7 @@
     <col min="12" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1">
+    <row r="2" spans="1:15" ht="16.5" customHeight="1">
       <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2228,7 +2238,7 @@
       <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="5">
@@ -2238,8 +2248,9 @@
         <v>71</v>
       </c>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1">
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="1">
         <f>ROW()-1</f>
         <v>2</v>
@@ -2272,7 +2283,7 @@
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1">
+    <row r="4" spans="1:15" ht="16.5" customHeight="1">
       <c r="A4" s="1">
         <f>ROW()-1</f>
         <v>3</v>
@@ -2307,7 +2318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1">
+    <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="1">
         <f>ROW()-1</f>
         <v>4</v>
@@ -2342,7 +2353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1">
+    <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="1">
         <f>ROW()-1</f>
         <v>5</v>
@@ -2376,7 +2387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1">
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2389,7 +2400,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1">
+    <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2402,7 +2413,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2415,7 +2426,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2428,7 +2439,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2441,7 +2452,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:15" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2454,7 +2465,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1">
+    <row r="13" spans="1:15" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2467,7 +2478,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1">
+    <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2480,7 +2491,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1">
+    <row r="15" spans="1:15" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2493,7 +2504,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1">
+    <row r="16" spans="1:15" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -15093,14 +15104,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId6"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Map/excel.xlsx
+++ b/Map/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyi07\OneDrive\문서\git\sc-musicOS\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F45FC-1CEF-4B9B-BDCD-098E31CEC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C529DF-F63D-4169-B9D9-1E4A7AFC6C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2158,7 +2158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G26:G27"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Map/excel.xlsx
+++ b/Map/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyi07\OneDrive\문서\git\sc-musicOS\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F45FC-1CEF-4B9B-BDCD-098E31CEC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BCB88E-701F-43D2-B8C5-A004562E360F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2158,7 +2158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G26:G27"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Map/excel.xlsx
+++ b/Map/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyi07\OneDrive\문서\git\sc-musicOS\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C529DF-F63D-4169-B9D9-1E4A7AFC6C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F2CC51-8F09-4F4F-979E-D09A8A83773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2158,7 +2158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2268,7 +2268,7 @@
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="9" t="s">
         <v>9</v>
       </c>

--- a/Map/excel.xlsx
+++ b/Map/excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyi07\OneDrive\문서\git\sc-musicOS\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F2CC51-8F09-4F4F-979E-D09A8A83773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5CB79B-2E1E-4669-8BD9-48556E769233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>번호</t>
   </si>
@@ -1690,6 +1690,10 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2158,7 +2162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2235,8 +2239,8 @@
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>6</v>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>8</v>
@@ -2288,7 +2292,9 @@
         <f>ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
